--- a/experiments/dbscan-ajk/sbert/0.2/prediction.xlsx
+++ b/experiments/dbscan-ajk/sbert/0.2/prediction.xlsx
@@ -468,41 +468,41 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
+          <t>AE Locked. Metering disabled</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Fly with caution</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
+          <t>API Automatic Takeoff</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -548,17 +548,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
+          <t>ActiveTrack Flight Ended: Cannot find subject</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
+          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,21 +568,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Cannot find subject</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -598,27 +598,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Image Transmission Recovered. Aircraft is returning home.</t>
+          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AE Locked. Metering disabled</t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -648,57 +648,57 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
+          <t>Aircraft Core Board Overheated</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
+          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
+          <t>Aircraft GPS signal too weak. Home Point not updated</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aircraft battery level low. Return to home promptly</t>
+          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Battery level low. Charge battery</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>Aircraft battery level low. Return to home promptly</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -708,827 +708,827 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Critical Low Battery</t>
+          <t>Aircraft close to Home Point. go home shifts to landing.</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Critical low battery voltage</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft returning to home</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Critical low battery. Recharge promptly</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Critical low battery. Return to home or land promptly</t>
+          <t>Aircraft flight control obtained by remote controller A</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Critical low battery. Unable to take off. Recharge promptly</t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Low battery. Recharge promptly</t>
+          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Low battery. Return to home promptly</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Low power, please replace the battery</t>
+          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery. Please change the battery</t>
+          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Aircraft close to Home Point. go home shifts to landing.</t>
+          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Aircraft Core Board Overheated</t>
+          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>Aircraft in high interference environment. Fly with caution</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller A</t>
+          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
+          <t>Aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak. Home Point not updated</t>
+          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
+          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to hover. Fly with caution</t>
+          <t>Aircraft is now following you.</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Fly with caution</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Strong Aircraft Interference</t>
+          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Aircraft is too far away</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
+          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
+          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
+          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t>Aircraft power insufficient. Fly with caution</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Aircraft is flying back to the start point</t>
+          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Aircraft processor overheated. Automatically returning to home</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>The aircraft is flying back to the start point</t>
+          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t>Aircraft settings updated to comply with national regulations</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
+          <t>Aircraft takeoff altitude error. Restart aircraft</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Aircraft is now following you.</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Altitude Zone nnn</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Ambient Light is too weak.</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
+          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Aircraft is too far away</t>
+          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
+          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
+          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
+          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
+          <t>Another aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient. Fly with caution</t>
+          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated. Automatically returning to home</t>
+          <t>Arrived at End Point</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Aircraft settings updated to comply with national regulations</t>
+          <t>Arrived at destination</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>At Least Two Waypoints Required</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error. Restart aircraft</t>
+          <t>At least two Waypoints are needed</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
+          <t>Attitude is too large.</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
+          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
+          <t>Auto Landing in nnn(s)</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
+          <t>Auto landing initiated</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>Auxiliary Bottom Light set to automatic mode</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak.</t>
+          <t>Auxiliary Bottom Light turned off</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t>Auxiliary Bottom Light turned on</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
+          <t>Away and Follow in progress.</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1538,2077 +1538,2077 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Barometer Dead in Air</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Barometer initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
+          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
+          <t>Battery Signal Error. Check battery connection.</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>59</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t>Battery Voltage Difference too large. Check Battery Status</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>60</v>
+        <v>93</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>API Automatic Takeoff</t>
+          <t>Battery cells undervoltage</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
+          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Arrived at destination</t>
+          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Arrived at End Point</t>
+          <t>Battery level low. Charge battery</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start</t>
+          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>At Least Two Waypoints Required</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Attitude is too large.</t>
+          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
+          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
+          <t>Battery temperature too low. Fly with caution</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
+          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
+          <t>Battery: Connection Error</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Auto Landing in nnn(s)</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Auto landing initiated</t>
+          <t>Battery: Overcurrent During Discharge</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>72</v>
+        <v>97</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light set to automatic mode</t>
+          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off</t>
+          <t>Braking now! Return sticks to midpoints first.</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>73</v>
+        <v>99</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned on</t>
+          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>73</v>
+        <v>99</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Away and Follow in progress.</t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>75</v>
+        <v>101</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning.</t>
+          <t>Calibration target not far away enough. Please calibrate using infinity</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>75</v>
+        <v>102</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>75</v>
+        <v>105</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Working.</t>
+          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>75</v>
+        <v>107</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Camera Settings ActiveTrack Optimized</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>76</v>
+        <v>109</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Camera Settings Adjusted</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>76</v>
+        <v>110</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Camera Settings Adjusted to ActiveTrack</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>76</v>
+        <v>109</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Barometer Dead in Air</t>
+          <t>Camera error. AI Spot-Check failed. Restart camera</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Barometer initialization failed. Restart aircraft</t>
+          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>79</v>
+        <v>106</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
+          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>80</v>
+        <v>108</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>81</v>
+        <v>111</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Battery cells undervoltage</t>
+          <t>Cancel Landing Failed</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>82</v>
+        <v>112</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>83</v>
+        <v>113</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>Cannot Enter TapFly Cannot fly in that direction</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>84</v>
+        <v>117</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>86</v>
+        <v>125</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
+          <t>Cannot Track Subject. Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>87</v>
+        <v>127</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
+          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>88</v>
+        <v>114</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>89</v>
+        <v>115</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
+          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>90</v>
+        <v>116</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Battery Signal Error. Check battery connection.</t>
+          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>91</v>
+        <v>118</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
+          <t>Cannot enter the selected flight mode. Try again later.</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>92</v>
+        <v>114</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Battery temperature too low. Fly with caution</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>92</v>
+        <v>119</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
+          <t>Cannot send ActiveTrack command</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Battery Voltage Difference too large. Check Battery Status</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>94</v>
+        <v>123</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Battery: Connection Error</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>95</v>
+        <v>114</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Battery: Overcurrent During Discharge</t>
+          <t>Cannot takeoff in a no-fly zone</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>97</v>
+        <v>124</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
+          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>98</v>
+        <v>126</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Braking now! Return sticks to midpoints first.</t>
+          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
+          <t>Cannot track subject: Gimbal Tilt too Large</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>99</v>
+        <v>129</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Cache Space Full</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>101</v>
+        <v>131</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Calibration target not far away enough. Please calibrate using infinity</t>
+          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>102</v>
+        <v>131</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Capture Failed Cannot enter Pano mode</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>103</v>
+        <v>132</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Camera error. AI Spot-Check failed. Restart camera</t>
+          <t>Capture Failed Shooting interrupted</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
+          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>105</v>
+        <v>134</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>106</v>
+        <v>135</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>107</v>
+        <v>135</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
+          <t>Capture Failed. Shooting is currently not permitted</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>108</v>
+        <v>136</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
+          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>108</v>
+        <v>134</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>108</v>
+        <v>134</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>108</v>
+        <v>137</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Vision sensor error. Contact DJI Support for assistance</t>
+          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Camera Settings ActiveTrack Optimized</t>
+          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>109</v>
+        <v>139</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted to ActiveTrack</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>109</v>
+        <v>139</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Camera storage full</t>
+          <t>Command Timeout</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>111</v>
+        <v>141</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Cancel Landing Failed</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>112</v>
+        <v>142</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>112</v>
+        <v>142</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>113</v>
+        <v>142</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Failed to cancel Return to Home</t>
+          <t>Compass Error. Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>113</v>
+        <v>144</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
+          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>114</v>
+        <v>142</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Cannot enter the selected flight mode. Try again later.</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>114</v>
+        <v>142</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>114</v>
+        <v>142</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>Compass Error. Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>114</v>
+        <v>142</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed</t>
+          <t>Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>114</v>
+        <v>142</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
+          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>114</v>
+        <v>143</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>115</v>
+        <v>142</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
+          <t>Compass Error. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Cannot Enter TapFly Cannot fly in that direction</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>117</v>
+        <v>143</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Compass Interference. Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>118</v>
+        <v>146</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Compass Interference. Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>119</v>
+        <v>146</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Cannot send ActiveTrack command</t>
+          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>121</v>
+        <v>142</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>122</v>
+        <v>142</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>123</v>
+        <v>142</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Cannot takeoff in a no-fly zone</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
+          <t>Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Cannot Track Subject. Cannot Identify Subject</t>
+          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>127</v>
+        <v>142</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Cannot track subject: Gimbal Tilt too Large</t>
+          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Cannot track subject: No image. Please retry</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
+          <t>Critical Low Battery</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>131</v>
+        <v>12</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
+          <t>Critical low battery voltage</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>131</v>
+        <v>12</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Subject too Large. Move Away and retry</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Subject too Small. Get Closer and retry</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Capture Failed Cannot enter Pano mode</t>
+          <t>Critical low battery. Aircraft returning to home</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>132</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Capture Failed Shooting interrupted</t>
+          <t>Critical low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>133</v>
+        <v>12</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>134</v>
+        <v>12</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
+          <t>Critical low battery. Unable to take off. Recharge promptly</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>134</v>
+        <v>12</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
+          <t>Critically Low Power. Aircraft Landing</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>134</v>
+        <v>149</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Capture Failed. Shooting is currently not permitted</t>
+          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>Current elevation above nnn. Fly with caution</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Warning: Command Failed</t>
+          <t>Data Recorder File Index is 12.</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Command Timeout</t>
+          <t>Data Recorder File Index is 13.</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Compass data error. Please contact DJI Support</t>
+          <t>Data Recorder File Index is 18.</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>Data Recorder File Index is 19.</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Data Recorder File Index is 2.</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>Data Recorder File Index is 21.</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
+          <t>Data Recorder File Index is 29.</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Data Recorder File Index is 3.</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Compass Error. Compass direction is not the same with IMU</t>
+          <t>Data Recorder File Index is 4.</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Compass Error. Compass disconnected</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>Data Recorder File Index is 5.</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Data Recorder File Index is 57.</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Data Recorder File Index is 7.</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
+          <t>Data Recorder File Index is 8.</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
+          <t>Descending. Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Detecting subject</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Compass Error. Exit P-GPS Mode</t>
+          <t>Distance limit enabled. Fly safely</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Downlink Restored (after 0m 0.9s).</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+          <t>Downlink Restored (after 0m 1.1s).</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Redundancy Switch</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>144</v>
+        <v>162</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Downlink Restored (after 0m 1.4s).</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>144</v>
+        <v>162</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>Downlink Restored (after 0m 1.5s).</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude : 98ft</t>
+          <t>Downlink Restored (after 0m 1.6s).</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude: nnn</t>
+          <t>Downlink Restored (after 0m 1.7s).</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Downlink Restored (after 0m 11.3s).</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
+          <t>Downlink Restored (after 0m 11s).</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft landing automatically</t>
+          <t>Downlink Restored (after 0m 1s).</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>Downlink Restored (after 0m 2.2s).</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing</t>
+          <t>Downlink Restored (after 0m 2.3s).</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>Downlink Restored (after 0m 5.6s).</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
+          <t>Downlink Restored (after 0m 5.8s).</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
+          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Current elevation above nnn. Fly with caution</t>
+          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>153</v>
+        <v>108</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>154</v>
+        <v>59</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 12.</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>155</v>
+        <v>59</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 13.</t>
+          <t>Downward infrared sensor failure. Land as soon as possible</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 15.</t>
+          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 17.</t>
+          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 18.</t>
+          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>155</v>
+        <v>108</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19.</t>
+          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2.</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 21.</t>
+          <t>During Smart Track, you can control lens zoom within a certain limit</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 29.</t>
+          <t>EMMC is full</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 3.</t>
+          <t>Ensure control sticks are centered during takeoff</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 30.</t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4.</t>
+          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45.</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46.</t>
+          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>155</v>
+        <v>174</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 5.</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>155</v>
+        <v>67</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 57.</t>
+          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65.</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 7.</t>
+          <t>Exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8.</t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Descending. Exited Visual Avoidance System</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>156</v>
+        <v>177</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System.</t>
+          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>156</v>
+        <v>178</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Detecting subject</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>157</v>
+        <v>179</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Disable SD card read and write protection or change card</t>
+          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Distance limit enabled. Fly safely</t>
+          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>159</v>
+        <v>179</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s).</t>
+          <t>Failed to cancel Return to Home</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.1s).</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>162</v>
+        <v>112</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s).</t>
+          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>162</v>
+        <v>182</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.5s).</t>
+          <t>File system error. Change SD card</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>162</v>
+        <v>183</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s).</t>
+          <t>Flight Mode Set to Attitude</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.7s).</t>
+          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>162</v>
+        <v>184</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s).</t>
+          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>162</v>
+        <v>184</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s).</t>
+          <t>Flight control mode error, cannot start recording QuickShot</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>162</v>
+        <v>185</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s).</t>
+          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>162</v>
+        <v>186</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s).</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>162</v>
+        <v>187</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.3s).</t>
+          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>162</v>
+        <v>142</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s).</t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>162</v>
+        <v>75</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s).</t>
+          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>162</v>
+        <v>76</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Downward infrared sensor failure. Land as soon as possible</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>163</v>
+        <v>75</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
+          <t>Forward Obstacle Sensing not Working.</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>164</v>
+        <v>75</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -3618,2297 +3618,2297 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>165</v>
+        <v>108</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>166</v>
+        <v>189</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Drone is Vibrating</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>167</v>
+        <v>190</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>GPS Position Mismatch.</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>168</v>
+        <v>202</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>EMMC is full</t>
+          <t>GPS module error. Restart aircraft</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>169</v>
+        <v>201</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Ensure control sticks are centered during takeoff</t>
+          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>170</v>
+        <v>203</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
+          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>171</v>
+        <v>204</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode</t>
+          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>171</v>
+        <v>20</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
+          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>172</v>
+        <v>20</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
+          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>174</v>
+        <v>196</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
+          <t>Gimbal Pitch Reached Movement Limit</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>175</v>
+        <v>196</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>176</v>
+        <v>197</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Exiting GPS mode: Unknown Error</t>
+          <t>Gimbal Roll Limit Reached.</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>177</v>
+        <v>198</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>178</v>
+        <v>200</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Gimbal calibrating</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
+          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Gimbal nnn pan axis endpoint reached</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
+          <t>Gimbal nnn roll axis endpoint reached</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>181</v>
+        <v>195</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
+          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>182</v>
+        <v>205</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>File system error. Change SD card</t>
+          <t>Gyroscope initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>183</v>
+        <v>206</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>184</v>
+        <v>209</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>184</v>
+        <v>207</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>184</v>
+        <v>208</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>184</v>
+        <v>208</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Flight control mode error, cannot start recording QuickShot</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>185</v>
+        <v>208</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
+          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>186</v>
+        <v>208</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>High wind velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>187</v>
+        <v>208</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Flight Mode Set to Attitude</t>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>189</v>
+        <v>210</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>Home Point Recorded.</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
+          <t>Home Point Recorded. RTH Altitude : 30m.</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>192</v>
+        <v>210</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
+          <t>Home Point Recorded. Taking off.</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>Home Point Updated.</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>194</v>
+        <v>213</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Gimbal nnn pan axis endpoint reached</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>195</v>
+        <v>210</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>195</v>
+        <v>210</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>Home Point updated. RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached.</t>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>196</v>
+        <v>217</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit</t>
+          <t>IMU calibration required. Calibrate IMU</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>196</v>
+        <v>218</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Gimbal Recenter</t>
+          <t>IMU not calibrated. Calibrate IMU</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>197</v>
+        <v>218</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached.</t>
+          <t>IMU warming up. Wait before taking off</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
+          <t>Image Transmission Recovered. Aircraft is returning home.</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>199</v>
+        <v>7</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>GPS module error. Restart aircraft</t>
+          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Navigation system error. Restart aircraft</t>
+          <t>Impact detected. Restart aircraft</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>GPS Position Mismatch.</t>
+          <t>In Flight.</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
+          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Insufficient SD card space. Change card or delete files</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Ground Plain. Safe to Land.</t>
+          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>205</v>
+        <v>223</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed. Restart aircraft</t>
+          <t>Landing Canceled.</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>206</v>
+        <v>224</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>Landing Gear Lowered.</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+          <t>Landing Gear Lowering.</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>Landing Gear Paused.</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>208</v>
+        <v>227</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
+          <t>Landing Gear Raised.</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>208</v>
+        <v>226</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Landing Gear Raising.</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>208</v>
+        <v>226</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Landing Gear Raising. Home Point Recorded</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>208</v>
+        <v>228</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution.</t>
+          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>208</v>
+        <v>229</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Large Wind Velocity. Fly with caution.</t>
+          <t>Landing gear function restored</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Strong wind. Fly with caution</t>
+          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>208</v>
+        <v>226</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
+          <t>Landing.</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
+          <t>Large Wind Velocity.</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
+          <t>Large Wind Velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>210</v>
+        <v>232</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Home Point Recorded. RTH Altitude : 30m.</t>
+          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>210</v>
+        <v>59</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>210</v>
+        <v>59</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>210</v>
+        <v>233</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t>Loading database failed. Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>210</v>
+        <v>234</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Home Point Recorded.</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>211</v>
+        <v>235</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Home Point Recorded. Taking off.</t>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>Low Power. Returning home.</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>213</v>
+        <v>238</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Home Point updated. RTH altitude adjusted to nnn</t>
+          <t>Low battery voltage. Fly with caution</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>214</v>
+        <v>236</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>Low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>215</v>
+        <v>12</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
+          <t>Low battery. Return to home promptly</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>216</v>
+        <v>12</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Impact detected. Restart aircraft</t>
+          <t>Low power, please replace the battery</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>216</v>
+        <v>12</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>217</v>
+        <v>143</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>IMU calibration required. Calibrate IMU</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>218</v>
+        <v>143</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>Manned aircraft approaching. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>218</v>
+        <v>239</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>IMU warming up. Wait before taking off</t>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>219</v>
+        <v>240</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>In Flight.</t>
+          <t>Manned aircraft too close. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>221</v>
+        <v>242</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Insufficient SD card space. Change card or delete files</t>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>SD card full. Change card or delete files</t>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
+          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>223</v>
+        <v>21</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Landing Canceled.</t>
+          <t>Maximum Flight Altitude Reached.</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>224</v>
+        <v>244</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>225</v>
+        <v>243</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Landing Gear Lowered.</t>
+          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>226</v>
+        <v>243</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>226</v>
+        <v>243</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Min Waypoint Distance: nnn</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>226</v>
+        <v>245</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Landing Gear Lowering.</t>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>226</v>
+        <v>246</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Landing Gear Raised.</t>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Landing Gear Raising.</t>
+          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>226</v>
+        <v>254</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled.</t>
+          <t>Motor error. Check propellers and fly with caution</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>226</v>
+        <v>248</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Fly with caution</t>
+          <t>Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>226</v>
+        <v>249</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Motor is Blocked</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>226</v>
+        <v>250</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>226</v>
+        <v>251</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance will be disabled in landing.</t>
+          <t>Motor is idling (lost or missing propeller)</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>226</v>
+        <v>249</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
+          <t>Motor nnn propeller detached or installed incorrectly</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>226</v>
+        <v>252</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>Motor nnn stalled. Land aircraft immediately</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>227</v>
+        <v>253</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t>Motor or propeller error. Check the motors and propellers.</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>228</v>
+        <v>248</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
+          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>229</v>
+        <v>251</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Landing.</t>
+          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>230</v>
+        <v>251</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Large Wind Velocity.</t>
+          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>231</v>
+        <v>251</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Lens not connected</t>
+          <t>Motor unable to rotate. Check motor</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>232</v>
+        <v>255</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+          <t>Motors Started.</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>233</v>
+        <v>256</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Loading database failed. Geo-awareness function degraded</t>
+          <t>Navigation system error. Restart aircraft</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>234</v>
+        <v>201</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>235</v>
+        <v>20</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>235</v>
+        <v>20</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Precision Landing. Correcting Landing Position.</t>
+          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Precision Landing. Locating Landing Point</t>
+          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>235</v>
+        <v>258</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Precision Landing. Rectifying aircraft position.</t>
+          <t>No SD card. Insert card</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>235</v>
+        <v>259</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Low battery voltage. Fly with caution</t>
+          <t>Not Allowed to change Aircraft Mode. If needed</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>236</v>
+        <v>114</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>237</v>
+        <v>114</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>Not Enough Force/ESC Error</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>238</v>
+        <v>260</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Manned aircraft approaching. Fly at a safe altitude</t>
+          <t>Object too close to laser rangefinder</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>239</v>
+        <v>261</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Manned aircraft detected nearby. Fly with caution</t>
+          <t>Object too far for laser rangefinder</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>240</v>
+        <v>261</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Manned aircraft too close. Fly at a safe altitude</t>
+          <t>Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Obstacle Avoidance disabled. Fly with caution</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
+          <t>Obstacle Avoidance will be disabled in landing.</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
+          <t>Obstacle Avoided. Revise Flight Route</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>243</v>
+        <v>262</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>243</v>
+        <v>263</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached.</t>
+          <t>PalmControl in Process</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>244</v>
+        <v>264</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Reaching maximum altitude...</t>
+          <t>Pano shooting completed. The sky part is filled automatically</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>244</v>
+        <v>265</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Min Waypoint Distance: nnn</t>
+          <t>Pano successful</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>245</v>
+        <v>266</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+          <t>Panorama Captured Successfully</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>246</v>
+        <v>267</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>247</v>
+        <v>268</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Motor error. Check propellers and fly with caution</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>248</v>
+        <v>268</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Motor or propeller error. Check the motors and propellers.</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>248</v>
+        <v>268</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Motor idle. Check whether propellers are installed</t>
+          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>249</v>
+        <v>269</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Motor is idling (lost or missing propeller)</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
+          <t>Precision Landing. Correcting Landing Position.</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Motor is Blocked</t>
+          <t>Precision Landing. Locating Landing Point</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed</t>
+          <t>Precision Landing. Rectifying aircraft position.</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>Propeller Fell Off</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>251</v>
+        <v>270</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
+          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>251</v>
+        <v>271</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>251</v>
+        <v>272</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Motor nnn propeller detached or installed incorrectly</t>
+          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>252</v>
+        <v>273</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Motor nnn stalled. Land aircraft immediately</t>
+          <t>Propellers not installed</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>253</v>
+        <v>274</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
+          <t>Propulsion output has been limited to ensure battery health.</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>254</v>
+        <v>275</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Motor unable to rotate. Check motor</t>
+          <t>QuickShot has ended</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>255</v>
+        <v>276</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Motors Started.</t>
+          <t>RTH : Ascending to RTH altitude.</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>256</v>
+        <v>292</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
+          <t>RTH : Cruise.</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>257</v>
+        <v>293</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
+          <t>RTH : Heading alignment.</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>258</v>
+        <v>294</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>No SD card. Insert card</t>
+          <t>RTH : Preascending.</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>259</v>
+        <v>295</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Not Enough Force/ESC Error</t>
+          <t>RTH Altitude : 65FT.</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>260</v>
+        <v>296</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>RTH Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>261</v>
+        <v>296</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Object too far for laser rangefinder</t>
+          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>261</v>
+        <v>297</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Obstacle Avoided. Revise Flight Route</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>262</v>
+        <v>298</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>263</v>
+        <v>299</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>PalmControl in Process</t>
+          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>264</v>
+        <v>299</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Pano shooting completed. The sky part is filled automatically</t>
+          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>265</v>
+        <v>300</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Pano successful</t>
+          <t>Reaching maximum altitude...</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Panorama Captured Successfully</t>
+          <t>Recenter Gimbal Pan</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>268</v>
+        <v>279</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
+          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>268</v>
+        <v>283</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>269</v>
+        <v>286</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>Remote ID functionality normal</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
+          <t>Remote controller assisted takeoff initiated.</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Remote controller battery level low. Recharge promptly</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Propellers not installed</t>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>274</v>
+        <v>25</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health.</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>QuickShot has ended</t>
+          <t>Remote controller signal weak. Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Restart aircraft and DJI Fly</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>278</v>
+        <v>289</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>Return-to-Home Altitude : 65FT</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>279</v>
+        <v>210</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Remote controller assisted takeoff initiated.</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>280</v>
+        <v>210</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Remote controller battery level low. Recharge promptly</t>
+          <t>Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>281</v>
+        <v>210</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Remote controller disconnected from aircraft</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
+          <t>Right Dial Locked. Lightly press to adjust.</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>Running Flight Simulator. Restart aircraft to take off</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>284</v>
+        <v>301</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Remote controller signal weak. Adjust remote controller antennas</t>
+          <t>SD card full. Change card or delete files</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>285</v>
+        <v>222</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>SD card malfunction. Change card</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Remote ID functionality normal</t>
+          <t>SD card speed low. Change card</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>287</v>
+        <v>304</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>288</v>
+        <v>305</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Restart aircraft and DJI Fly</t>
+          <t>Satellite positioning off. Fly with Caution.</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>289</v>
+        <v>302</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>Sensing system is blocked or too close to the obstacle.</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>290</v>
+        <v>306</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Right Dial Locked. Lightly press to adjust.</t>
+          <t>Set Flight Mode to GPS to fly safe</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>291</v>
+        <v>307</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>Setting new Maximum Flight Altitude to nnn</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>292</v>
+        <v>21</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>RTH : Cruise.</t>
+          <t>Setting new Return-To-Home altitude to nnn</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>293</v>
+        <v>308</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>294</v>
+        <v>309</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>RTH : Preascending.</t>
+          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>295</v>
+        <v>310</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>296</v>
+        <v>311</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>Starting Smart Track</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>296</v>
+        <v>312</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
+          <t>Strong Aircraft Interference</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>297</v>
+        <v>24</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>RTH altitude adjusted to nnn</t>
+          <t>Strong Interference Detected. Be careful when flying long distances.</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>Strong Interference Now. Fly with caution.</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>299</v>
+        <v>313</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
+          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>299</v>
+        <v>313</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
+          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>300</v>
+        <v>313</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Running Flight Simulator. Restart aircraft to take off</t>
+          <t>Strong Interference. Fly with caution.</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Satellite positioning off. Fly with Caution.</t>
+          <t>Strong Remote Controller Interference</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>SD card malfunction. Change card</t>
+          <t>Strong Remote Controller Interference.</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>303</v>
+        <v>314</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>SD card speed low. Change card</t>
+          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>304</v>
+        <v>315</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle.</t>
+          <t>Strong wind. Fly with caution</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>306</v>
+        <v>208</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Set Flight Mode to GPS to fly safe</t>
+          <t>Strong wireless interference. Please fly with caution.</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Setting new Return-To-Home altitude to nnn</t>
+          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Signal Lost. Aircraft returning to Home Point</t>
+          <t>Subject lost. Reselect subject</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
+          <t>Subject lost. Searching …</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>311</v>
+        <v>131</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>312</v>
+        <v>131</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Strong Interference Detected. Be careful when flying long distances.</t>
+          <t>Switched to A (Attitude)-mode</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Strong Interference Now. Fly with caution.</t>
+          <t>Switched to P (Positioning)-mode.</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
+          <t>Switched to S (Sport)-mode.</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
+          <t>Switched to T (Tripod)-mode.</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>313</v>
+        <v>322</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Strong Interference. Fly with caution.</t>
+          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution.</t>
+          <t>Take off and retry this function.</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Take off in P-Mode</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>313</v>
+        <v>324</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference</t>
+          <t>Taking Off.</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>314</v>
+        <v>325</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference.</t>
+          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
+          <t>Tap the screen lightly to focus.</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Tap the screen to focus.</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Subject lost. Reselect subject</t>
+          <t>Tap to choose a valid zone.</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Subject lost. Searching …</t>
+          <t>Target lost. QuickShots stopped</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Switched to A (Attitude)-mode</t>
+          <t>The aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>318</v>
+        <v>29</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
+          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>319</v>
+        <v>330</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode.</t>
+          <t>The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>320</v>
+        <v>331</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>321</v>
+        <v>332</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>322</v>
+        <v>333</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Take off and retry this function.</t>
+          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>323</v>
+        <v>334</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Take off in P-Mode</t>
+          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -5918,267 +5918,267 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>324</v>
+        <v>335</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Taking Off.</t>
+          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>325</v>
+        <v>336</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
+          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>326</v>
+        <v>182</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus.</t>
+          <t>Upward Obstacle Detected</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Tap the screen to focus.</t>
+          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>327</v>
+        <v>338</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Tap to choose a valid zone.</t>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>328</v>
+        <v>108</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Target lost. QuickShots stopped</t>
+          <t>Vision sensor(s) blocked. Fly with caution</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
+          <t>Vision systems and obstacle avoidance disabled</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
+          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
+          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>334</v>
+        <v>92</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Warning: Command Failed</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>335</v>
+        <v>140</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
+          <t>Warning: Command Timeout</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>336</v>
+        <v>141</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Upward Obstacle Detected</t>
+          <t>Warning: Critically low battery. Please change the battery</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>337</v>
+        <v>12</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
+          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>338</v>
+        <v>243</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked. Fly with caution</t>
+          <t>Warning: Motor Obstructed</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>339</v>
+        <v>250</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Vision systems and obstacle avoidance disabled</t>
+          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate. Fly with caution</t>
+          <t>Waypoint Mission Paused</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Waypoint Mission Resumed</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
+          <t>Waypoint Mission Start</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>343</v>
+        <v>67</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Waypoint Mission Paused</t>
+          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>345</v>
+        <v>20</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed</t>
+          <t>Weak image transmission signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+          <t>Weak signal. Adjust antenna and avoid signal block.</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Weak image transmission signal. Adjust antennas</t>
+          <t>Weak signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -6188,27 +6188,27 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antenna and avoid signal block.</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antennas</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
+          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="B578" t="n">
@@ -6218,51 +6218,51 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
+          <t>Yaw Error.</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Yaw Error.</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>349</v>
+        <v>184</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
+          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
+          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>351</v>
+        <v>184</v>
       </c>
     </row>
     <row r="584">
